--- a/Gannt.xlsx
+++ b/Gannt.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\Google Drive\University\Year 2\COMP208\Studioruum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619F27E4-3EB0-4798-911F-296652021F03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2DD8E-7DC5-4731-AFAD-29121C91DAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7343B4A2-938C-4C1A-ADB8-EFBE2A50E93C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7343B4A2-938C-4C1A-ADB8-EFBE2A50E93C}"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Week 03</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Meeting 01</t>
   </si>
   <si>
-    <t>WRITE SOME GENERAL PLANNINNG NOTES TOO</t>
-  </si>
-  <si>
     <t>(LJ) Minute 01</t>
   </si>
   <si>
@@ -126,7 +123,37 @@
     <t>(TB) System Requirements</t>
   </si>
   <si>
-    <t>(LJ) Requirements Gannt Chart</t>
+    <t>(LJ) Minute 02</t>
+  </si>
+  <si>
+    <t>Meeting 02</t>
+  </si>
+  <si>
+    <t>(LJ) Global Logical Data Model</t>
+  </si>
+  <si>
+    <t>(DP) Data Dictionary</t>
+  </si>
+  <si>
+    <t>(TB) Logical Table Structure</t>
+  </si>
+  <si>
+    <t>(TB) Physical Table Structure</t>
+  </si>
+  <si>
+    <t>(JC/LS) Interface Design</t>
+  </si>
+  <si>
+    <t>(BC) Transaction Matrix</t>
+  </si>
+  <si>
+    <t>(LJ) Planning / Gannt</t>
+  </si>
+  <si>
+    <t>Meeting 03</t>
+  </si>
+  <si>
+    <t>(LJ) Minute 03</t>
   </si>
 </sst>
 </file>
@@ -180,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,11 +267,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,6 +312,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -266,9 +325,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -292,6 +348,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,7 +360,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -380,10 +445,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332361</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>4053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
@@ -404,12 +469,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4029075" y="1333500"/>
-          <a:ext cx="714375" cy="104775"/>
+          <a:off x="4555787" y="1337553"/>
+          <a:ext cx="182394" cy="100722"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 64667"/>
+            <a:gd name="adj1" fmla="val 3333"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -465,6 +530,886 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 848"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639042</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>107375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Connector: Elbow 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75EECB-956F-4E6B-8C97-F71554B717EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5339197" y="1672072"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639908</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>121230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>865</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>135082</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Connector: Elbow 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96D3A93-95E6-44CD-A8F5-4F879498A5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5340063" y="1876427"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>640775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>130756</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1732</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144608</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Connector: Elbow 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D66383-80AB-4378-BFEF-61C12A2D14E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5340930" y="2076453"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641639</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2596</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>145475</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Connector: Elbow 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B240C4BA-A160-4EA4-9F08-8D0039A95A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5341794" y="2648820"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641641</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>144612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2598</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>158464</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Connector: Elbow 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B6B098-672A-4E22-B08D-A95AC6D47313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5341796" y="2280809"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642507</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>154138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3464</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167990</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connector: Elbow 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6CFCEB-F1CF-4A12-B200-686D97460490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5342662" y="2480835"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>642506</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123831</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3463</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>137683</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Connector: Elbow 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F987143-1E86-4769-A144-8E8709F1269B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5342661" y="2831528"/>
+          <a:ext cx="204352" cy="122957"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98728"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Connector: Elbow 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B318D9-2A27-4FB4-A0D5-5B5065A2180C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808203" y="3241729"/>
+          <a:ext cx="673854" cy="101546"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 647"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487553</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100096</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>645</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="Connector: Elbow 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7694B082-2756-4AB0-B8A3-F6D0F133047E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808206" y="3338596"/>
+          <a:ext cx="236346" cy="211631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488199</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1291</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>138017</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Connector: Elbow 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E89177F-EEDF-49E0-89D1-1A05753F1C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808852" y="3545886"/>
+          <a:ext cx="236346" cy="211631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488845</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>127218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>148349</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="Connector: Elbow 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F3E959-AA9E-4701-AE51-A08B22D2DBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8809498" y="3746718"/>
+          <a:ext cx="236346" cy="211631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>492673</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>156098</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="Connector: Elbow 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD6B905-8AFD-45FF-86B0-DE6F8EF5BE25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8711227" y="4025997"/>
+          <a:ext cx="412288" cy="229914"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 97799"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487554</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>646</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>130913</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Connector: Elbow 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8764BA31-CFDC-4C6E-9A2B-B17806541AD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808207" y="4300782"/>
+          <a:ext cx="236346" cy="211631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>488200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1292</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>138016</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="Connector: Elbow 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE25B13-5A44-473C-934F-5742EFA5A2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8808853" y="4498385"/>
+          <a:ext cx="236346" cy="211631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 2185"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>269327</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>6569</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>6569</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>111672</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Connector: Elbow 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD3D74B9-DD3D-46F9-8E9E-24A593816F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11167241" y="4007069"/>
+          <a:ext cx="670035" cy="105103"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 1961"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>487550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="Connector: Elbow 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C41DA77-160F-4EDC-A02B-F0AF3676222B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8793350" y="3241729"/>
+          <a:ext cx="674500" cy="101546"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 647"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -776,7 +1721,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -788,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45759C08-C944-4274-8501-6D52E1634B71}">
-  <dimension ref="B2:DB16"/>
+  <dimension ref="B2:DB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,148 +1772,152 @@
     <col min="11" max="11" width="11.42578125" customWidth="1"/>
     <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7" customWidth="1"/>
-    <col min="15" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="35" width="7" bestFit="1" customWidth="1"/>
     <col min="36" max="66" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="96" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="97" max="106" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9" t="s">
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9" t="s">
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9" t="s">
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9" t="s">
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9" t="s">
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9" t="s">
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9" t="s">
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="9"/>
-      <c r="BQ2" s="9"/>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9" t="s">
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="9" t="s">
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="9"/>
-      <c r="CH2" s="10" t="s">
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="CI2" s="11"/>
-      <c r="CJ2" s="11"/>
-      <c r="CK2" s="11"/>
-      <c r="CL2" s="11"/>
-      <c r="CM2" s="11"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="9" t="s">
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="CP2" s="9"/>
-      <c r="CQ2" s="9"/>
-      <c r="CR2" s="9"/>
-      <c r="CS2" s="9"/>
-      <c r="CT2" s="9"/>
-      <c r="CU2" s="9"/>
-      <c r="CV2" s="9" t="s">
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="CW2" s="9"/>
-      <c r="CX2" s="9"/>
-      <c r="CY2" s="9"/>
-      <c r="CZ2" s="9"/>
-      <c r="DA2" s="9"/>
-      <c r="DB2" s="9"/>
+      <c r="CW2" s="6"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
     </row>
     <row r="3" spans="2:106" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -1264,121 +2237,121 @@
       </c>
     </row>
     <row r="4" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="14" t="s">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="13" t="s">
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="20" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AL4" s="20"/>
-      <c r="AM4" s="20"/>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-      <c r="AP4" s="20"/>
-      <c r="AQ4" s="20"/>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="20"/>
-      <c r="AX4" s="20"/>
-      <c r="AY4" s="20"/>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="20"/>
-      <c r="BI4" s="20"/>
-      <c r="BJ4" s="20"/>
-      <c r="BK4" s="20"/>
-      <c r="BL4" s="20"/>
-      <c r="BM4" s="20"/>
-      <c r="BN4" s="20"/>
-      <c r="BO4" s="20"/>
-      <c r="BP4" s="20"/>
-      <c r="BQ4" s="20"/>
-      <c r="BR4" s="20"/>
-      <c r="BS4" s="20"/>
-      <c r="BT4" s="20"/>
-      <c r="BU4" s="20"/>
-      <c r="BV4" s="20"/>
-      <c r="BW4" s="20"/>
-      <c r="BX4" s="20"/>
-      <c r="BY4" s="20"/>
-      <c r="BZ4" s="20"/>
-      <c r="CA4" s="20"/>
-      <c r="CB4" s="20"/>
-      <c r="CC4" s="20"/>
-      <c r="CD4" s="20"/>
-      <c r="CE4" s="20"/>
-      <c r="CF4" s="20"/>
-      <c r="CG4" s="20"/>
-      <c r="CH4" s="20"/>
-      <c r="CI4" s="20"/>
-      <c r="CJ4" s="20"/>
-      <c r="CK4" s="20"/>
-      <c r="CL4" s="20"/>
-      <c r="CM4" s="5" t="s">
+      <c r="AG4" s="18"/>
+      <c r="AH4" s="18"/>
+      <c r="AI4" s="18"/>
+      <c r="AJ4" s="18"/>
+      <c r="AK4" s="18"/>
+      <c r="AL4" s="18"/>
+      <c r="AM4" s="18"/>
+      <c r="AN4" s="18"/>
+      <c r="AO4" s="18"/>
+      <c r="AP4" s="18"/>
+      <c r="AQ4" s="18"/>
+      <c r="AR4" s="18"/>
+      <c r="AS4" s="18"/>
+      <c r="AT4" s="18"/>
+      <c r="AU4" s="18"/>
+      <c r="AV4" s="18"/>
+      <c r="AW4" s="18"/>
+      <c r="AX4" s="18"/>
+      <c r="AY4" s="18"/>
+      <c r="AZ4" s="18"/>
+      <c r="BA4" s="18"/>
+      <c r="BB4" s="18"/>
+      <c r="BC4" s="18"/>
+      <c r="BD4" s="18"/>
+      <c r="BE4" s="18"/>
+      <c r="BF4" s="18"/>
+      <c r="BG4" s="18"/>
+      <c r="BH4" s="18"/>
+      <c r="BI4" s="18"/>
+      <c r="BJ4" s="18"/>
+      <c r="BK4" s="18"/>
+      <c r="BL4" s="18"/>
+      <c r="BM4" s="18"/>
+      <c r="BN4" s="18"/>
+      <c r="BO4" s="18"/>
+      <c r="BP4" s="18"/>
+      <c r="BQ4" s="18"/>
+      <c r="BR4" s="18"/>
+      <c r="BS4" s="18"/>
+      <c r="BT4" s="18"/>
+      <c r="BU4" s="18"/>
+      <c r="BV4" s="18"/>
+      <c r="BW4" s="18"/>
+      <c r="BX4" s="18"/>
+      <c r="BY4" s="18"/>
+      <c r="BZ4" s="18"/>
+      <c r="CA4" s="18"/>
+      <c r="CB4" s="18"/>
+      <c r="CC4" s="18"/>
+      <c r="CD4" s="18"/>
+      <c r="CE4" s="18"/>
+      <c r="CF4" s="18"/>
+      <c r="CG4" s="18"/>
+      <c r="CH4" s="18"/>
+      <c r="CI4" s="18"/>
+      <c r="CJ4" s="18"/>
+      <c r="CK4" s="18"/>
+      <c r="CL4" s="18"/>
+      <c r="CM4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="5"/>
-      <c r="CX4" s="5"/>
-      <c r="CY4" s="5"/>
-      <c r="CZ4" s="5"/>
-      <c r="DA4" s="5"/>
-      <c r="DB4" s="5"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="7"/>
+      <c r="CT4" s="7"/>
+      <c r="CU4" s="7"/>
+      <c r="CV4" s="7"/>
+      <c r="CW4" s="7"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
     </row>
     <row r="5" spans="2:106" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -1488,14 +2461,14 @@
       <c r="DB5" s="1"/>
     </row>
     <row r="6" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1604,10 +2577,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="7"/>
       <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1711,91 +2684,230 @@
       </c>
     </row>
     <row r="9" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="M9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="5"/>
+      <c r="M9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
+      <c r="L10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
     </row>
     <row r="11" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
+      <c r="L11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
+      <c r="L14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L15" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="8"/>
+      <c r="L15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+    </row>
+    <row r="17" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
+    </row>
+    <row r="18" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="T18" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+    </row>
+    <row r="20" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+    </row>
+    <row r="21" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="24"/>
+      <c r="Y22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+    </row>
+    <row r="23" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S23" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S24" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="S25" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+    </row>
+    <row r="26" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="Y26" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="AA27" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB27" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
+  <mergeCells count="40">
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="S22:X22"/>
+    <mergeCell ref="Y22:AD22"/>
+    <mergeCell ref="S23:AD23"/>
+    <mergeCell ref="S24:AD24"/>
+    <mergeCell ref="S25:AD25"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="S19:AD19"/>
+    <mergeCell ref="S20:AD20"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="CM4:DB4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="B4:H4"/>
     <mergeCell ref="L16:Q16"/>
     <mergeCell ref="L15:Q15"/>
     <mergeCell ref="CV2:DB2"/>
@@ -1812,15 +2924,11 @@
     <mergeCell ref="CA2:CG2"/>
     <mergeCell ref="AK2:AQ2"/>
     <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="CM4:DB4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gannt.xlsx
+++ b/Gannt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blink\Google Drive\University\Year 2\COMP208\Studioruum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE2DD8E-7DC5-4731-AFAD-29121C91DAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872F617A-3662-4439-9583-A15E371C066F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7343B4A2-938C-4C1A-ADB8-EFBE2A50E93C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7343B4A2-938C-4C1A-ADB8-EFBE2A50E93C}"/>
   </bookViews>
   <sheets>
     <sheet name="V1.0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Week 03</t>
   </si>
@@ -99,9 +101,6 @@
     <t>Initial Planning</t>
   </si>
   <si>
-    <t>Meeting 01</t>
-  </si>
-  <si>
     <t>(LJ) Minute 01</t>
   </si>
   <si>
@@ -126,9 +125,6 @@
     <t>(LJ) Minute 02</t>
   </si>
   <si>
-    <t>Meeting 02</t>
-  </si>
-  <si>
     <t>(LJ) Global Logical Data Model</t>
   </si>
   <si>
@@ -150,10 +146,64 @@
     <t>(LJ) Planning / Gannt</t>
   </si>
   <si>
-    <t>Meeting 03</t>
-  </si>
-  <si>
     <t>(LJ) Minute 03</t>
+  </si>
+  <si>
+    <t>(LJ) Minute 04</t>
+  </si>
+  <si>
+    <t>(LJ) Minute 05</t>
+  </si>
+  <si>
+    <t>(LJ) Minute 06</t>
+  </si>
+  <si>
+    <t>Research For the Implementation and Refining Individual Design Work</t>
+  </si>
+  <si>
+    <t>Meeting 07</t>
+  </si>
+  <si>
+    <t>(LJ) Minute 07</t>
+  </si>
+  <si>
+    <t>Implementation Brainstorming</t>
+  </si>
+  <si>
+    <t>Design Review Meeting</t>
+  </si>
+  <si>
+    <t>Idea G. Meeting</t>
+  </si>
+  <si>
+    <t>Requirements G. Meeting</t>
+  </si>
+  <si>
+    <t>Design G. Meeting</t>
+  </si>
+  <si>
+    <t>Planning G. Meeting</t>
+  </si>
+  <si>
+    <t>Brainstorming G. Meeting</t>
+  </si>
+  <si>
+    <t>(LJ) General Area - Online Integration</t>
+  </si>
+  <si>
+    <t>(DP) General Area - Android Version</t>
+  </si>
+  <si>
+    <t>(BC) General Area - Database Integration</t>
+  </si>
+  <si>
+    <t>(LS) - General Area - Desktop Version</t>
+  </si>
+  <si>
+    <t>(TB) - General Area - Database Design</t>
+  </si>
+  <si>
+    <t>(JC) General Area - User Interface</t>
   </si>
 </sst>
 </file>
@@ -297,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -312,10 +362,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +387,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,27 +422,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,831 +572,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connector: Elbow 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C5252B-E26A-4C12-A1B5-6C95F58AADC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5381625" y="1533525"/>
-          <a:ext cx="561975" cy="95250"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 848"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639042</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>107375</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Connector: Elbow 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75EECB-956F-4E6B-8C97-F71554B717EF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5339197" y="1672072"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>639908</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>121230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>865</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>135082</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Connector: Elbow 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96D3A93-95E6-44CD-A8F5-4F879498A5D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5340063" y="1876427"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>640775</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>130756</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1732</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144608</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Connector: Elbow 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D66383-80AB-4378-BFEF-61C12A2D14E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5340930" y="2076453"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>641639</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>131623</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2596</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145475</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Connector: Elbow 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B240C4BA-A160-4EA4-9F08-8D0039A95A75}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5341794" y="2648820"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>641641</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>144612</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>2598</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>158464</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Connector: Elbow 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B6B098-672A-4E22-B08D-A95AC6D47313}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5341796" y="2280809"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>642507</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>154138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3464</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>167990</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Connector: Elbow 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F6CFCEB-F1CF-4A12-B200-686D97460490}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5342662" y="2480835"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>642506</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123831</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3463</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>137683</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Connector: Elbow 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F987143-1E86-4769-A144-8E8709F1269B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5342661" y="2831528"/>
-          <a:ext cx="204352" cy="122957"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 98728"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>487550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3229</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Connector: Elbow 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B318D9-2A27-4FB4-A0D5-5B5065A2180C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8808203" y="3241729"/>
-          <a:ext cx="673854" cy="101546"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 647"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>487553</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>100096</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>645</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="Connector: Elbow 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7694B082-2756-4AB0-B8A3-F6D0F133047E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8808206" y="3338596"/>
-          <a:ext cx="236346" cy="211631"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2185"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>488199</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>116886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1291</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>138017</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="64" name="Connector: Elbow 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E89177F-EEDF-49E0-89D1-1A05753F1C15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8808852" y="3545886"/>
-          <a:ext cx="236346" cy="211631"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2185"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>488845</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>127218</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1937</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>148349</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="65" name="Connector: Elbow 64">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F3E959-AA9E-4701-AE51-A08B22D2DBAE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8809498" y="3746718"/>
-          <a:ext cx="236346" cy="211631"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2185"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>492673</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>124810</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>156098</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="67" name="Connector: Elbow 66">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD6B905-8AFD-45FF-86B0-DE6F8EF5BE25}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="8711227" y="4025997"/>
-          <a:ext cx="412288" cy="229914"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 97799"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>487554</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>109782</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>646</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>130913</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="68" name="Connector: Elbow 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8764BA31-CFDC-4C6E-9A2B-B17806541AD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8808207" y="4300782"/>
-          <a:ext cx="236346" cy="211631"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2185"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>488200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>116885</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1292</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>138016</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="69" name="Connector: Elbow 68">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE25B13-5A44-473C-934F-5742EFA5A2BE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8808853" y="4498385"/>
-          <a:ext cx="236346" cy="211631"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 2185"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>269327</xdr:colOff>
       <xdr:row>21</xdr:row>
@@ -1386,10 +633,10 @@
       <xdr:rowOff>3229</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1404,13 +651,2157 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8793350" y="3241729"/>
-          <a:ext cx="674500" cy="101546"/>
+          <a:off x="12940807" y="4956229"/>
+          <a:ext cx="796964" cy="105628"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 647"/>
+            <a:gd name="adj1" fmla="val -538"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461210</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5013</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130342</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Connector: Elbow 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCE7469E-05AA-49BD-A9FE-A2EBD0CF7661}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4880309" y="2017796"/>
+          <a:ext cx="1463842" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>461210</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>934064</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>98323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD745833-F063-4F7A-AA0D-B6EF64FB6EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5392702" y="2762250"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>467032</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>5822</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CED12FB-BE64-4F4C-8950-F88081AD4CF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5398524" y="2571750"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>462730</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90949</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1520</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>94022</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535BF868-6D33-4E41-9F2E-8C4393049FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394222" y="2376949"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>464573</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>92792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3363</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95865</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8BD9D4-0A2E-4C4E-8D95-B433713FB19D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5396065" y="2188292"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>463344</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>2134</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>94636</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{967DC78A-11EF-4252-94D8-806DF2074703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5394836" y="1996563"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>462115</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>96479</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>905</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99552</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D282BDC-DAD1-4A6F-9A7E-42328D6B5577}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5393607" y="1810979"/>
+          <a:ext cx="472854" cy="3073"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>462378</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468085</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>91036</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4010544D-6EE8-4C9B-B737-5F8E8A38D499}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5404492" y="1611086"/>
+          <a:ext cx="941879" cy="3950"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3598</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>93455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connector: Elbow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CBFEFD-D80B-4A85-BD64-C949E0887374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8324495" y="2239275"/>
+          <a:ext cx="1240043" cy="377404"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 145"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467263</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50321</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>377405</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50321</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Connector 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFDBEEF0-0881-47AA-943A-0AA1CF933C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8752216" y="1955321"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5032</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58948</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>382438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>58948</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Straight Connector 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E812FC-20B8-481A-9199-046B2E909B00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8757249" y="2154448"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2875</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>380281</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49603</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EFE13F-C9DF-44A0-BC4F-032A6181F5E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8755092" y="2335603"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>4312</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381718</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>51040</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="Straight Connector 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D12A745-0E0B-4E14-8DD2-A1F95DB7040B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8756529" y="2527540"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2155</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379561</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45290</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3705B5-AB9F-4F3A-B1AB-CDEA29DD5A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8754372" y="2712290"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>467261</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>377403</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>43134</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="Straight Connector 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13771829-AB49-48C0-940F-253C11B9BA6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8752214" y="2900634"/>
+          <a:ext cx="377406" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>7326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7328</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>109903</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Connector: Elbow 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20953CF9-C182-4E5B-A4ED-BCB4C911E7D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="8744683" y="3645144"/>
+          <a:ext cx="1245577" cy="446942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8AE07DC-168B-4111-B81E-973379314E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9136673" y="3326423"/>
+          <a:ext cx="923192" cy="7327"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2569A3-4A7D-47A9-B38F-22261D612CB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9144000" y="3509596"/>
+          <a:ext cx="446942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>379535</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101112</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Straight Arrow Connector 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF22F6A-F67E-4D55-A66D-95FA8D163AD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9142535" y="3720612"/>
+          <a:ext cx="446942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>378069</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4396</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>84993</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="71" name="Straight Arrow Connector 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00E6023D-140D-448C-9DB8-9FD487A9AA76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9141069" y="3894993"/>
+          <a:ext cx="446942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>383930</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10257</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>105508</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Straight Arrow Connector 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2232B1-83E6-4E22-A353-581B133E3018}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9146930" y="4296508"/>
+          <a:ext cx="446942" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>487550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="Connector: Elbow 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79B7202A-D47A-4C7B-9180-4076BB1CFA65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12878333" y="4956229"/>
+          <a:ext cx="793413" cy="105628"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -538"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446943</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Connector: Elbow 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478B6050-86BB-4392-A265-C93003C1BD63}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="15580702" y="4106740"/>
+          <a:ext cx="1633904" cy="439616"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -673"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>451758</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>87086</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="Straight Arrow Connector 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48CAE021-6AC8-4A6A-9F06-2378F90F906E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16181614" y="3706586"/>
+          <a:ext cx="446315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5443</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>451758</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B47EEA72-2111-4337-9D8D-D4906DDFC389}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16181614" y="4093029"/>
+          <a:ext cx="446315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>446316</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Straight Arrow Connector 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE11C49-2DE6-4D0F-87E0-5997AE1BD8B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16176172" y="4283529"/>
+          <a:ext cx="446315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>5444</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>451759</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2372FA66-F4FE-470B-9280-F504DA038DB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16181615" y="4479472"/>
+          <a:ext cx="446315" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>5444</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>103415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>440872</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Straight Arrow Connector 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0DF826F-FD94-4951-9BF1-152B185D9E49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13269687" y="4865915"/>
+          <a:ext cx="3347356" cy="5442"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>468923</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="Connector: Elbow 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{613955D9-50AB-47FE-81BB-C7AB18EB9D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17958288" y="5524500"/>
+          <a:ext cx="468924" cy="109904"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 0"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>487550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="Connector: Elbow 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAD0359-1ED1-4833-B8DD-1475A783A817}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16580659" y="5337229"/>
+          <a:ext cx="826544" cy="105628"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -538"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>487550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3229</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>5442</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Connector: Elbow 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D4AEC61-F5C4-478C-92B6-281DCC4F727B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20258137" y="5908729"/>
+          <a:ext cx="934218" cy="105628"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -538"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>99391</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>480391</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Connector: Elbow 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68B743DC-C570-4B1B-BD0C-3AC6132F6013}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23588870" y="5623891"/>
+          <a:ext cx="480391" cy="472109"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>81869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="Connector: Elbow 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7AF2F29-1EF2-464A-B1B8-4BA80AF5D1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30970904" y="6558869"/>
+          <a:ext cx="366346" cy="108631"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>373673</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>16122</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>120282</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="93" name="Connector: Elbow 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5361EA88-5EC2-4F8D-A70C-4E2824B1B9A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31337250" y="6865327"/>
+          <a:ext cx="836737" cy="112955"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 963"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>735724</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="101" name="Connector: Elbow 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BA4A879-A404-4538-B9D8-9384F7B550E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="33012829" y="7399446"/>
+          <a:ext cx="1266825" cy="564931"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>729155</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="104" name="Straight Arrow Connector 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5775412-7D87-477F-B78D-5263BEBE4C9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33357207" y="8086397"/>
+          <a:ext cx="571500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>729155</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>91965</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="105" name="Straight Arrow Connector 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0922CF-CBDC-4570-9395-2D831CFE61DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33357207" y="7895897"/>
+          <a:ext cx="571500" cy="6568"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>735724</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>1314</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>93279</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="106" name="Straight Arrow Connector 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4D2A35B-FEEE-4072-8C1C-C17A18D9DD62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33363776" y="7711966"/>
+          <a:ext cx="566245" cy="1313"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>729155</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>98534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>9197</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101161</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="Straight Arrow Connector 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8A3892-6356-4DF8-8317-2A8340B2C1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33357207" y="7528034"/>
+          <a:ext cx="580697" cy="2627"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>735724</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>91966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>10510</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102474</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="108" name="Straight Arrow Connector 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DDF5D53-8199-4E5C-9896-834D54D1B545}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33363776" y="7330966"/>
+          <a:ext cx="575441" cy="10508"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -1757,167 +3148,182 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45759C08-C944-4274-8501-6D52E1634B71}">
-  <dimension ref="B2:DB27"/>
+  <dimension ref="B2:DB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AO50" sqref="AO50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1"/>
     <col min="15" max="17" width="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
-    <col min="19" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" customWidth="1"/>
-    <col min="26" max="35" width="7" bestFit="1" customWidth="1"/>
-    <col min="36" max="66" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26" customWidth="1"/>
+    <col min="19" max="20" width="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" customWidth="1"/>
+    <col min="22" max="24" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1"/>
+    <col min="26" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" customWidth="1"/>
+    <col min="29" max="31" width="7" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21" customWidth="1"/>
+    <col min="33" max="35" width="7" bestFit="1" customWidth="1"/>
+    <col min="36" max="38" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.42578125" customWidth="1"/>
+    <col min="40" max="45" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28.5703125" customWidth="1"/>
+    <col min="47" max="52" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.7109375" customWidth="1"/>
+    <col min="54" max="55" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="12.28515625" customWidth="1"/>
+    <col min="57" max="66" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="96" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="97" max="106" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6" t="s">
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6" t="s">
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6" t="s">
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6" t="s">
+      <c r="AS2" s="18"/>
+      <c r="AT2" s="18"/>
+      <c r="AU2" s="18"/>
+      <c r="AV2" s="18"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6" t="s">
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6" t="s">
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6" t="s">
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6" t="s">
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
-      <c r="CH2" s="11" t="s">
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="18"/>
+      <c r="CG2" s="18"/>
+      <c r="CH2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="13"/>
-      <c r="CO2" s="6" t="s">
+      <c r="CI2" s="20"/>
+      <c r="CJ2" s="20"/>
+      <c r="CK2" s="20"/>
+      <c r="CL2" s="20"/>
+      <c r="CM2" s="20"/>
+      <c r="CN2" s="21"/>
+      <c r="CO2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="CP2" s="6"/>
-      <c r="CQ2" s="6"/>
-      <c r="CR2" s="6"/>
-      <c r="CS2" s="6"/>
-      <c r="CT2" s="6"/>
-      <c r="CU2" s="6"/>
-      <c r="CV2" s="6" t="s">
+      <c r="CP2" s="18"/>
+      <c r="CQ2" s="18"/>
+      <c r="CR2" s="18"/>
+      <c r="CS2" s="18"/>
+      <c r="CT2" s="18"/>
+      <c r="CU2" s="18"/>
+      <c r="CV2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="CW2" s="6"/>
-      <c r="CX2" s="6"/>
-      <c r="CY2" s="6"/>
-      <c r="CZ2" s="6"/>
-      <c r="DA2" s="6"/>
-      <c r="DB2" s="6"/>
+      <c r="CW2" s="18"/>
+      <c r="CX2" s="18"/>
+      <c r="CY2" s="18"/>
+      <c r="CZ2" s="18"/>
+      <c r="DA2" s="18"/>
+      <c r="DB2" s="18"/>
     </row>
     <row r="3" spans="2:106" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
@@ -2237,121 +3643,121 @@
       </c>
     </row>
     <row r="4" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="15" t="s">
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="14" t="s">
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="18" t="s">
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" s="30"/>
+      <c r="AT4" s="30"/>
+      <c r="AU4" s="30"/>
+      <c r="AV4" s="30"/>
+      <c r="AW4" s="30"/>
+      <c r="AX4" s="30"/>
+      <c r="AY4" s="30"/>
+      <c r="AZ4" s="30"/>
+      <c r="BA4" s="31"/>
+      <c r="BB4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="18"/>
-      <c r="AH4" s="18"/>
-      <c r="AI4" s="18"/>
-      <c r="AJ4" s="18"/>
-      <c r="AK4" s="18"/>
-      <c r="AL4" s="18"/>
-      <c r="AM4" s="18"/>
-      <c r="AN4" s="18"/>
-      <c r="AO4" s="18"/>
-      <c r="AP4" s="18"/>
-      <c r="AQ4" s="18"/>
-      <c r="AR4" s="18"/>
-      <c r="AS4" s="18"/>
-      <c r="AT4" s="18"/>
-      <c r="AU4" s="18"/>
-      <c r="AV4" s="18"/>
-      <c r="AW4" s="18"/>
-      <c r="AX4" s="18"/>
-      <c r="AY4" s="18"/>
-      <c r="AZ4" s="18"/>
-      <c r="BA4" s="18"/>
-      <c r="BB4" s="18"/>
-      <c r="BC4" s="18"/>
-      <c r="BD4" s="18"/>
-      <c r="BE4" s="18"/>
-      <c r="BF4" s="18"/>
-      <c r="BG4" s="18"/>
-      <c r="BH4" s="18"/>
-      <c r="BI4" s="18"/>
-      <c r="BJ4" s="18"/>
-      <c r="BK4" s="18"/>
-      <c r="BL4" s="18"/>
-      <c r="BM4" s="18"/>
-      <c r="BN4" s="18"/>
-      <c r="BO4" s="18"/>
-      <c r="BP4" s="18"/>
-      <c r="BQ4" s="18"/>
-      <c r="BR4" s="18"/>
-      <c r="BS4" s="18"/>
-      <c r="BT4" s="18"/>
-      <c r="BU4" s="18"/>
-      <c r="BV4" s="18"/>
-      <c r="BW4" s="18"/>
-      <c r="BX4" s="18"/>
-      <c r="BY4" s="18"/>
-      <c r="BZ4" s="18"/>
-      <c r="CA4" s="18"/>
-      <c r="CB4" s="18"/>
-      <c r="CC4" s="18"/>
-      <c r="CD4" s="18"/>
-      <c r="CE4" s="18"/>
-      <c r="CF4" s="18"/>
-      <c r="CG4" s="18"/>
-      <c r="CH4" s="18"/>
-      <c r="CI4" s="18"/>
-      <c r="CJ4" s="18"/>
-      <c r="CK4" s="18"/>
-      <c r="CL4" s="18"/>
-      <c r="CM4" s="7" t="s">
+      <c r="BC4" s="27"/>
+      <c r="BD4" s="27"/>
+      <c r="BE4" s="27"/>
+      <c r="BF4" s="27"/>
+      <c r="BG4" s="27"/>
+      <c r="BH4" s="27"/>
+      <c r="BI4" s="27"/>
+      <c r="BJ4" s="27"/>
+      <c r="BK4" s="27"/>
+      <c r="BL4" s="27"/>
+      <c r="BM4" s="27"/>
+      <c r="BN4" s="27"/>
+      <c r="BO4" s="27"/>
+      <c r="BP4" s="27"/>
+      <c r="BQ4" s="27"/>
+      <c r="BR4" s="27"/>
+      <c r="BS4" s="27"/>
+      <c r="BT4" s="27"/>
+      <c r="BU4" s="27"/>
+      <c r="BV4" s="27"/>
+      <c r="BW4" s="27"/>
+      <c r="BX4" s="27"/>
+      <c r="BY4" s="27"/>
+      <c r="BZ4" s="27"/>
+      <c r="CA4" s="27"/>
+      <c r="CB4" s="27"/>
+      <c r="CC4" s="27"/>
+      <c r="CD4" s="27"/>
+      <c r="CE4" s="27"/>
+      <c r="CF4" s="27"/>
+      <c r="CG4" s="27"/>
+      <c r="CH4" s="27"/>
+      <c r="CI4" s="27"/>
+      <c r="CJ4" s="27"/>
+      <c r="CK4" s="27"/>
+      <c r="CL4" s="28"/>
+      <c r="CM4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="CN4" s="7"/>
-      <c r="CO4" s="7"/>
-      <c r="CP4" s="7"/>
-      <c r="CQ4" s="7"/>
-      <c r="CR4" s="7"/>
-      <c r="CS4" s="7"/>
-      <c r="CT4" s="7"/>
-      <c r="CU4" s="7"/>
-      <c r="CV4" s="7"/>
-      <c r="CW4" s="7"/>
-      <c r="CX4" s="7"/>
-      <c r="CY4" s="7"/>
-      <c r="CZ4" s="7"/>
-      <c r="DA4" s="7"/>
-      <c r="DB4" s="7"/>
+      <c r="CN4" s="8"/>
+      <c r="CO4" s="8"/>
+      <c r="CP4" s="8"/>
+      <c r="CQ4" s="8"/>
+      <c r="CR4" s="8"/>
+      <c r="CS4" s="8"/>
+      <c r="CT4" s="8"/>
+      <c r="CU4" s="8"/>
+      <c r="CV4" s="8"/>
+      <c r="CW4" s="8"/>
+      <c r="CX4" s="8"/>
+      <c r="CY4" s="8"/>
+      <c r="CZ4" s="8"/>
+      <c r="DA4" s="8"/>
+      <c r="DB4" s="8"/>
     </row>
     <row r="5" spans="2:106" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
@@ -2461,14 +3867,14 @@
       <c r="DB5" s="1"/>
     </row>
     <row r="6" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -2577,10 +3983,10 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="8"/>
       <c r="K7" s="4"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2680,242 +4086,405 @@
     </row>
     <row r="8" spans="2:106" x14ac:dyDescent="0.25">
       <c r="K8" s="3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="M9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="7"/>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="L10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="L11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="L12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L13" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
+      <c r="L13" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="L14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L15" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
+      <c r="L15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:106" x14ac:dyDescent="0.25">
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="R17" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="T18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+    </row>
+    <row r="20" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+    </row>
+    <row r="21" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="T21" s="11"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
+      <c r="X21" s="11"/>
+    </row>
+    <row r="22" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+    </row>
+    <row r="23" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+    </row>
+    <row r="24" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+    </row>
+    <row r="25" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="32"/>
+      <c r="AA25" s="32"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="32"/>
+      <c r="AD25" s="32"/>
+    </row>
+    <row r="26" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="Y26" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AA27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB27" s="8"/>
+    </row>
+    <row r="28" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AF28" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AH29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="AI29" s="8"/>
     </row>
-    <row r="17" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R17" s="5" t="s">
-        <v>31</v>
-      </c>
+    <row r="30" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AJ30" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK30" s="13"/>
+      <c r="AL30" s="13"/>
+      <c r="AM30" s="13"/>
+      <c r="AN30" s="13"/>
+      <c r="AO30" s="13"/>
+      <c r="AP30" s="13"/>
+      <c r="AQ30" s="13"/>
+      <c r="AR30" s="13"/>
+      <c r="AS30" s="14"/>
     </row>
-    <row r="18" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="T18" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="U18" s="22"/>
+    <row r="31" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AM31" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="19" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
+    <row r="32" spans="18:45" x14ac:dyDescent="0.25">
+      <c r="AO32" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP32" s="8"/>
     </row>
-    <row r="20" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S20" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
+    <row r="33" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="AT33" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="21" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S21" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
+    <row r="34" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="AV34" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AW34" s="10"/>
     </row>
-    <row r="22" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="24"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
+    <row r="35" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="AU35" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV35" s="8"/>
+      <c r="AW35" s="8"/>
+      <c r="AX35" s="8"/>
+      <c r="AY35" s="8"/>
+      <c r="AZ35" s="8"/>
+      <c r="BA35" s="32"/>
+      <c r="BB35" s="32"/>
+      <c r="BC35" s="32"/>
     </row>
-    <row r="23" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+    <row r="36" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BA36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD36" s="7"/>
     </row>
-    <row r="24" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S24" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+    <row r="37" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BC37" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD37" s="8"/>
+      <c r="BF37" s="32"/>
+      <c r="BG37" s="32"/>
     </row>
-    <row r="25" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="S25" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+    <row r="38" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="AY38" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AZ38" s="13"/>
+      <c r="BA38" s="13"/>
+      <c r="BB38" s="13"/>
+      <c r="BC38" s="14"/>
+      <c r="BF38" s="32"/>
+      <c r="BG38" s="32"/>
+      <c r="BH38" s="32"/>
+      <c r="BI38" s="32"/>
+      <c r="BJ38" s="32"/>
     </row>
-    <row r="26" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="Y26" s="5" t="s">
-        <v>39</v>
-      </c>
+    <row r="39" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF39" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG39" s="22"/>
+      <c r="BH39" s="22"/>
+      <c r="BI39" s="22"/>
+      <c r="BJ39" s="22"/>
+      <c r="BK39" s="22"/>
+      <c r="BL39" s="22"/>
+      <c r="BM39" s="22"/>
     </row>
-    <row r="27" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="AA27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB27" s="7"/>
+    <row r="40" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF40" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="30"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+      <c r="BM40" s="31"/>
+    </row>
+    <row r="41" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF41" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG41" s="22"/>
+      <c r="BH41" s="22"/>
+      <c r="BI41" s="22"/>
+      <c r="BJ41" s="22"/>
+      <c r="BK41" s="22"/>
+      <c r="BL41" s="22"/>
+      <c r="BM41" s="22"/>
+    </row>
+    <row r="42" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF42" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="30"/>
+      <c r="BI42" s="30"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
+      <c r="BM42" s="31"/>
+    </row>
+    <row r="43" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF43" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG43" s="30"/>
+      <c r="BH43" s="30"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="30"/>
+      <c r="BM43" s="31"/>
+    </row>
+    <row r="44" spans="46:65" x14ac:dyDescent="0.25">
+      <c r="BF44" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG44" s="30"/>
+      <c r="BH44" s="30"/>
+      <c r="BI44" s="30"/>
+      <c r="BJ44" s="30"/>
+      <c r="BK44" s="30"/>
+      <c r="BL44" s="30"/>
+      <c r="BM44" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AA27:AB27"/>
-    <mergeCell ref="S22:X22"/>
-    <mergeCell ref="Y22:AD22"/>
-    <mergeCell ref="S23:AD23"/>
-    <mergeCell ref="S24:AD24"/>
-    <mergeCell ref="S25:AD25"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="S21:X21"/>
-    <mergeCell ref="S19:AD19"/>
-    <mergeCell ref="S20:AD20"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="CM4:DB4"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="L16:Q16"/>
-    <mergeCell ref="L15:Q15"/>
+  <mergeCells count="52">
+    <mergeCell ref="BF44:BM44"/>
+    <mergeCell ref="BF39:BM39"/>
+    <mergeCell ref="BF40:BM40"/>
+    <mergeCell ref="BF41:BM41"/>
+    <mergeCell ref="BF42:BM42"/>
+    <mergeCell ref="BF43:BM43"/>
+    <mergeCell ref="AJ30:AS30"/>
+    <mergeCell ref="AO32:AP32"/>
+    <mergeCell ref="AV34:AW34"/>
+    <mergeCell ref="AU35:AZ35"/>
+    <mergeCell ref="BC37:BD37"/>
+    <mergeCell ref="AY38:BC38"/>
+    <mergeCell ref="AH29:AI29"/>
+    <mergeCell ref="S19:AE19"/>
+    <mergeCell ref="S20:AE20"/>
+    <mergeCell ref="Y22:AE22"/>
+    <mergeCell ref="S23:AE23"/>
+    <mergeCell ref="S24:AE24"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="P2:V2"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
     <mergeCell ref="CV2:DB2"/>
     <mergeCell ref="CO2:CU2"/>
     <mergeCell ref="CH2:CN2"/>
-    <mergeCell ref="U4:AE4"/>
     <mergeCell ref="I4:T4"/>
-    <mergeCell ref="AF4:CL4"/>
     <mergeCell ref="AR2:AX2"/>
     <mergeCell ref="AY2:BE2"/>
     <mergeCell ref="BF2:BL2"/>
@@ -2923,12 +4492,24 @@
     <mergeCell ref="BT2:BZ2"/>
     <mergeCell ref="CA2:CG2"/>
     <mergeCell ref="AK2:AQ2"/>
+    <mergeCell ref="BB4:CL4"/>
+    <mergeCell ref="U4:BA4"/>
+    <mergeCell ref="L11:Q11"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="L16:Q16"/>
+    <mergeCell ref="L15:Q15"/>
     <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:V2"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="CM4:DB4"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="S21:X21"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="AA27:AB27"/>
+    <mergeCell ref="S22:X22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
